--- a/medicine/Psychotrope/Véraison/Véraison.xlsx
+++ b/medicine/Psychotrope/Véraison/Véraison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9raison</t>
+          <t>Véraison</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La véraison est le moment de l'année où le grain de raisin gonfle et passe du vert au rouge vif pour les raisins noirs, au jaune translucide pour les raisins blancs, ou au rosé pour les raisins gris. Il commence à prendre la couleur qu'il aura à maturité. Les baies jusqu'alors dures, se ramollissent.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9raison</t>
+          <t>Véraison</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Date et durée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le processus dure une quinzaine de jours pour que toutes les baies soient vérées[1]. La véraison de chaque baie est rapide, de l'ordre de quelques jours, mais toutes les baies ne vèrent pas en même temps. Le stade phénologique "véraison" est considéré comme atteint lorsque 50 % des baies sont vérées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus dure une quinzaine de jours pour que toutes les baies soient vérées. La véraison de chaque baie est rapide, de l'ordre de quelques jours, mais toutes les baies ne vèrent pas en même temps. Le stade phénologique "véraison" est considéré comme atteint lorsque 50 % des baies sont vérées.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9raison</t>
+          <t>Véraison</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Processus biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce changement d'aspect correspond à une brusque accumulation de sucre dans les baies[2]. La couleur rouge/noire des baies est due à la synthèse d'anthocyanes dans la pellicule.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce changement d'aspect correspond à une brusque accumulation de sucre dans les baies. La couleur rouge/noire des baies est due à la synthèse d'anthocyanes dans la pellicule.
 Par métonymie, la véraison se dit aussi de l'état des fruits qui commencent à mûrir.
 </t>
         </is>
